--- a/r4-core-72-qa-errors-and-warnings/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-72-qa-errors-and-warnings/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T08:44:34+00:00</t>
+    <t>2024-02-13T12:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1190,7 +1190,7 @@
   </si>
   <si>
     <t>Expansion is performed to produce a collection of codes that are ready to use for data entry or validation. Value set expansions are always considered to be stateless - they are a record of the set of codes in the value set at a point in time under a given set of conditions, and are not subject to ongoing maintenance.
-Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](http://hl7.org/fhir/R4/parameters.html) resource.</t>
+Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](parameters.html) resource.</t>
   </si>
   <si>
     <t>ValueSet.expansion.id</t>
